--- a/medicine/Enfance/Simone_Roger-Vercel/Simone_Roger-Vercel.xlsx
+++ b/medicine/Enfance/Simone_Roger-Vercel/Simone_Roger-Vercel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simone Roger-Vercel (de son nom de naissance Simone Crétin, Vercel étant un pseudonyme) est une écrivaine française née le 10 janvier 1923[1] à Dinan, et morte le 17 septembre 2015 dans la même ville[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone Roger-Vercel (de son nom de naissance Simone Crétin, Vercel étant un pseudonyme) est une écrivaine française née le 10 janvier 1923 à Dinan, et morte le 17 septembre 2015 dans la même ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille de Roger Vercel, et sœur de l'artiste peintre Jean Vercel, elle écrit principalement des romans pour la jeunesse et des romans sentimentaux.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brigitte
-Il s'agit de la suite des Brigitte de l'auteur Berthe Bernage.
+          <t>Brigitte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la suite des Brigitte de l'auteur Berthe Bernage.
 Brigitte et le ciel qui s'éclaire, Elor, 1991  (ISBN 2907524232)N° 101
 Brigitte et le chevalier noir, Elor, 1992  (ISBN 2907524321)N° 102
 Brigitte et le regard sur l'avenir, Elor, 1993  (ISBN 2907524380)N° 103
@@ -553,7 +572,43 @@
 Brigitte et les détours de la providence, Elor, 1995  (ISBN 2907524593)N° 105
 Brigitte et l'enfant du courage, Elor, 1996  (ISBN 2907524798)N° 106
 Brigitte et la lettre d'Argentine, Elor, 1998  (ISBN 291221422X)N° 107
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Simone_Roger-Vercel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simone_Roger-Vercel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fanchette et le Moulin maudit, Élor, 1989  (ISBN 2907524089)
 Claire au voile blanc, Gautier-Languereau, 1976  (ISBN 2217300164)
 Claire et les Sorciers, Gautier-Languereau, 1978  (ISBN 2217300237)
@@ -585,8 +640,43 @@
 Défense de m'aimer, À la belle Hélène, 1957
 L'Orphelin de Brocéliande, Gautier-Languereau, 1979  (ISBN 2217220179)
 Trois romans de danse, Gautier-Languereau, 1977  (ISBN 2217220136)
-Sur la Bretagne
-La Presqu'île de Quiberon, Ouest-France, 1981  (ISBN 2860100008)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simone_Roger-Vercel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simone_Roger-Vercel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sur la Bretagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Presqu'île de Quiberon, Ouest-France, 1981  (ISBN 2860100008)
 15 histoires de Bretagne, Gautier-Languereau, 1976  (ISBN 2217040642)</t>
         </is>
       </c>
